--- a/notebooks/SCO2/input/SCO2_MYP6_individuals.xlsx
+++ b/notebooks/SCO2/input/SCO2_MYP6_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SCO2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B59675-AF79-C046-A29B-76C717A87323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCA4FDF-6743-C245-A24A-D9F59CE8F6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3640" windowWidth="30060" windowHeight="15440" xr2:uid="{AEA9B231-1836-6442-9A41-CA3AC153749E}"/>
+    <workbookView xWindow="180" yWindow="3060" windowWidth="30060" windowHeight="15440" xr2:uid="{AEA9B231-1836-6442-9A41-CA3AC153749E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
     <t>PMID</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>HP:0001249</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>clinical dx was eoarly onset high myopia, so we curate Childhood onset</t>
+  </si>
+  <si>
+    <t>assuming no cariological or neurological disease</t>
+  </si>
+  <si>
+    <t>individuals had no systemic abnormalities</t>
   </si>
 </sst>
 </file>
@@ -387,7 +399,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -726,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A9046-2C1A-9C42-BEC5-F421BCEC7735}">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,6 +966,9 @@
       <c r="C3" t="s">
         <v>78</v>
       </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
@@ -979,7 +994,7 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
         <v>76</v>
@@ -1009,7 +1024,7 @@
         <v>84</v>
       </c>
       <c r="W3" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="X3" t="s">
         <v>23</v>
@@ -1036,10 +1051,10 @@
         <v>23</v>
       </c>
       <c r="AF3" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s">
         <v>84</v>
@@ -1055,6 +1070,9 @@
       <c r="C4" t="s">
         <v>79</v>
       </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
         <v>77</v>
@@ -1107,10 +1125,10 @@
         <v>68</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="W4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="X4" t="s">
         <v>23</v>
@@ -1137,10 +1155,10 @@
         <v>23</v>
       </c>
       <c r="AF4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AG4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s">
         <v>84</v>
@@ -1156,6 +1174,9 @@
       <c r="C5" t="s">
         <v>85</v>
       </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
@@ -1208,13 +1229,13 @@
         <v>23</v>
       </c>
       <c r="V5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="W5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
         <v>23</v>
@@ -1223,7 +1244,7 @@
         <v>84</v>
       </c>
       <c r="AA5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AB5" t="s">
         <v>84</v>
@@ -1238,10 +1259,10 @@
         <v>23</v>
       </c>
       <c r="AF5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s">
         <v>84</v>
@@ -1309,13 +1330,13 @@
         <v>23</v>
       </c>
       <c r="V6" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="W6" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
         <v>23</v>
@@ -1324,7 +1345,7 @@
         <v>84</v>
       </c>
       <c r="AA6" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1339,10 +1360,10 @@
         <v>23</v>
       </c>
       <c r="AF6" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s">
         <v>84</v>
@@ -1410,13 +1431,13 @@
         <v>23</v>
       </c>
       <c r="V7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="W7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
         <v>23</v>
@@ -1425,7 +1446,7 @@
         <v>84</v>
       </c>
       <c r="AA7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AB7" t="s">
         <v>84</v>
@@ -1440,10 +1461,10 @@
         <v>23</v>
       </c>
       <c r="AF7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s">
         <v>84</v>
@@ -1511,13 +1532,13 @@
         <v>23</v>
       </c>
       <c r="V8" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="W8" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
         <v>23</v>
@@ -1526,7 +1547,7 @@
         <v>84</v>
       </c>
       <c r="AA8" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AB8" t="s">
         <v>84</v>
@@ -1541,10 +1562,10 @@
         <v>23</v>
       </c>
       <c r="AF8" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s">
         <v>84</v>
